--- a/1DAM/F.O.L/calculo_bases_cotizacion.xlsx
+++ b/1DAM/F.O.L/calculo_bases_cotizacion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Documents\ies-federica-montseny\1DAM\F.O.L\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39923908-A1DE-4216-BFB5-3F3777D007E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27887C-FFF3-423E-94D1-FA441719C92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD6F1533-AABF-414C-8653-F0AF724C1F26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FD6F1533-AABF-414C-8653-F0AF724C1F26}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Salario base</t>
   </si>
   <si>
-    <t>Plus antigüedad</t>
-  </si>
-  <si>
     <t>Horas extraordinarias (ordinarias)</t>
   </si>
   <si>
@@ -57,15 +55,6 @@
     <t>BASES DE COTIZACION</t>
   </si>
   <si>
-    <t>EJERCICIO 1</t>
-  </si>
-  <si>
-    <t>EJERCICIO 2</t>
-  </si>
-  <si>
-    <t>EJERCICIO 3</t>
-  </si>
-  <si>
     <t>BCCC</t>
   </si>
   <si>
@@ -78,20 +67,96 @@
     <t>BCHEFM</t>
   </si>
   <si>
-    <t>Plus Transporte</t>
-  </si>
-  <si>
     <t>Pagas extraordinarias</t>
+  </si>
+  <si>
+    <t>Salario Base</t>
+  </si>
+  <si>
+    <t>Complementos salariales</t>
+  </si>
+  <si>
+    <t>Plus Distancia</t>
+  </si>
+  <si>
+    <t>Complemento personal</t>
+  </si>
+  <si>
+    <t>Horas extraordinarias</t>
+  </si>
+  <si>
+    <t>Horas complementarias</t>
+  </si>
+  <si>
+    <t>Gratificaciones Extraordinarias</t>
+  </si>
+  <si>
+    <t>Salario en especie</t>
+  </si>
+  <si>
+    <t>Percepciones no salariales</t>
+  </si>
+  <si>
+    <t>Indemnizaciones</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de la seguridad social</t>
+  </si>
+  <si>
+    <t>Indemnizaciones por traslado, suspensiones o despidos</t>
+  </si>
+  <si>
+    <t>Otras percepciones no salariales</t>
+  </si>
+  <si>
+    <t>TOTAL DEVENGADO</t>
+  </si>
+  <si>
+    <t>DEDUCCIONES</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Contingencias comunes</t>
+  </si>
+  <si>
+    <t>Desempleo</t>
+  </si>
+  <si>
+    <t>Formación profesional</t>
+  </si>
+  <si>
+    <t>TOTAL APORTACIONES</t>
+  </si>
+  <si>
+    <t>IRPF</t>
+  </si>
+  <si>
+    <t>Anticipos</t>
+  </si>
+  <si>
+    <t>Valor de los productos recibidos en especie</t>
+  </si>
+  <si>
+    <t>Otras deducciones</t>
+  </si>
+  <si>
+    <t>TOTAL A DEDUCIR</t>
+  </si>
+  <si>
+    <t>LIQUIDO TOTAL A PERCIBIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +178,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,11 +227,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4631D8F-412C-4B0C-953E-0CA8813C4C65}">
-  <dimension ref="C2:F15"/>
+  <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,205 +576,449 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>950</v>
-      </c>
-      <c r="E3" s="1">
-        <v>950</v>
-      </c>
-      <c r="F3" s="1">
-        <v>950</v>
-      </c>
+      <c r="D3" s="11">
+        <f>Hoja2!E4</f>
+        <v>1115.19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="11">
+        <f>Hoja2!E6</f>
+        <v>67.33</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1">
-        <v>60</v>
-      </c>
+      <c r="D5" s="11">
+        <f>Hoja2!E7</f>
+        <v>26.04</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="11">
+        <f>Hoja2!E8</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <f>Hoja2!E9</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <f>(D3+D4)/6</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ref="E8:F8" si="0">(E3+E4)/6</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="E9:F9" si="1" xml:space="preserve"> 30 * 2</f>
-        <v>60</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <f>D3/6</f>
+        <v>185.86500000000001</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <f>D3+D4+D5+D8+(IF(D9&gt;(26.67*2),D9-(26.67*2),0))</f>
-        <v>1226.6666666666667</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" ref="E12:F12" si="2">E3+E4+E5+E8+(IF(E9&gt;(26.67*2),E9-(26.67*2),0))</f>
-        <v>1226.6666666666667</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>1233.3266666666668</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3">
-        <f>D12+D6+D7</f>
-        <v>1226.6666666666667</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13:F13" si="3">E12+E6+E7</f>
-        <v>1366.6666666666667</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="3"/>
-        <v>1373.3266666666668</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D13" s="11">
+        <f>D3+D4+D5+D9+(IF(D10&gt;(26.67*2),D10-(26.67*2),0))</f>
+        <v>1394.425</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" ref="E14:F14" si="4">E6</f>
-        <v>100</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <f>D13+D7+D8</f>
+        <v>1394.425</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="11">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" ref="E15:F15" si="5">E7</f>
-        <v>40</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA8BEC2-E289-4038-A182-9F995A73E1A4}">
+  <dimension ref="C3:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10">
+        <v>1115.19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10">
+        <f>SUM(E4:E17)</f>
+        <v>1208.56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <f>Hoja1!D13*D21</f>
+        <v>65.537975000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E22" s="10">
+        <f>Hoja1!D14*D22</f>
+        <v>21.613587499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="10">
+        <f>Hoja1!D14*D23</f>
+        <v>1.394425</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E24" s="10">
+        <f>Hoja1!D15*D24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10">
+        <f>SUM(E21:E24)</f>
+        <v>88.545987499999995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="10">
+        <f>SUM(E4:E12)*D26</f>
+        <v>24.171199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10">
+        <f>SUM(E25:E29)</f>
+        <v>112.71718749999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10">
+        <f>E18-E30</f>
+        <v>1095.8428125</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" errorStyle="information" operator="lessThan" allowBlank="1" showInputMessage="1" sqref="E5 E13" xr:uid="{DFAA6B4A-027D-479E-99F3-8C3016310E54}">
+      <formula1>99999</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" sqref="D3:E3 D4:D19 E19:E20 D25 D27:D32 E31 C31 C19" xr:uid="{462B12DD-7655-4667-9ECF-CD710E0F1EE1}">
+      <formula1>999999</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>